--- a/Evaluation_Results_With_CV.xlsx
+++ b/Evaluation_Results_With_CV.xlsx
@@ -22,10 +22,10 @@
     <t>Target</t>
   </si>
   <si>
-    <t>Cross-Validation Mean Accuracy</t>
-  </si>
-  <si>
-    <t>Cross-Validation Std Dev</t>
+    <t>CV Mean Accuracy</t>
+  </si>
+  <si>
+    <t>CV Std Dev</t>
   </si>
   <si>
     <t>Decision Tree</t>
@@ -485,10 +485,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.825</v>
+        <v>0.8375</v>
       </c>
       <c r="D6">
-        <v>0.06123724356957946</v>
+        <v>0.03061862178478972</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.85</v>
+        <v>0.8625</v>
       </c>
       <c r="D7">
-        <v>0.03061862178478973</v>
+        <v>0.04677071733467426</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -541,10 +541,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.575</v>
+        <v>0.6125</v>
       </c>
       <c r="D10">
-        <v>0.2481179155159901</v>
+        <v>0.2833946012188658</v>
       </c>
     </row>
   </sheetData>
